--- a/INTLINE/data/142/STANOR/07095 Index of production by Main Industrial Groupring.xlsx
+++ b/INTLINE/data/142/STANOR/07095 Index of production by Main Industrial Groupring.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="422">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="425">
   <x:si>
     <x:t>07095: Index of production (2005=100), by industry/main industrial grouping, contents and month</x:t>
   </x:si>
@@ -1172,6 +1172,15 @@
   </x:si>
   <x:si>
     <x:t>2022M01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022M02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022M03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022M04</x:t>
   </x:si>
   <x:si>
     <x:t>Intermediate goods</x:t>
@@ -1219,7 +1228,7 @@
     <x:t>Index of production. Seasonally adjusted:</x:t>
   </x:si>
   <x:si>
-    <x:t>20220307 08:00</x:t>
+    <x:t>20220608 08:00</x:t>
   </x:si>
   <x:si>
     <x:t>Index of production. Calendar adjusted:</x:t>
@@ -1678,21 +1687,21 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:NW91"/>
+  <x:dimension ref="A1:NZ91"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="387" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="1" max="390" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:387">
+    <x:row r="1" spans="1:390">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:387">
+    <x:row r="3" spans="1:390">
       <x:c r="C3" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -2848,13 +2857,22 @@
       <x:c r="NW3" s="2" t="s">
         <x:v>385</x:v>
       </x:c>
+      <x:c r="NX3" s="2" t="s">
+        <x:v>386</x:v>
+      </x:c>
+      <x:c r="NY3" s="2" t="s">
+        <x:v>387</x:v>
+      </x:c>
+      <x:c r="NZ3" s="2" t="s">
+        <x:v>388</x:v>
+      </x:c>
     </x:row>
-    <x:row r="4" spans="1:387">
+    <x:row r="4" spans="1:390">
       <x:c r="A4" s="2" t="s">
-        <x:v>386</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>387</x:v>
+        <x:v>390</x:v>
       </x:c>
       <x:c r="C4" s="3" t="n">
         <x:v>82.5</x:v>
@@ -3907,10 +3925,10 @@
         <x:v>109.2</x:v>
       </x:c>
       <x:c r="MO4" s="3" t="n">
-        <x:v>108.4</x:v>
+        <x:v>108.6</x:v>
       </x:c>
       <x:c r="MP4" s="3" t="n">
-        <x:v>109.1</x:v>
+        <x:v>108.9</x:v>
       </x:c>
       <x:c r="MQ4" s="3" t="n">
         <x:v>110</x:v>
@@ -3925,7 +3943,7 @@
         <x:v>109.9</x:v>
       </x:c>
       <x:c r="MU4" s="3" t="n">
-        <x:v>111.2</x:v>
+        <x:v>111.3</x:v>
       </x:c>
       <x:c r="MV4" s="3" t="n">
         <x:v>110.9</x:v>
@@ -3943,13 +3961,13 @@
         <x:v>113.7</x:v>
       </x:c>
       <x:c r="NA4" s="3" t="n">
-        <x:v>108.2</x:v>
+        <x:v>108.7</x:v>
       </x:c>
       <x:c r="NB4" s="3" t="n">
-        <x:v>106.2</x:v>
+        <x:v>105.9</x:v>
       </x:c>
       <x:c r="NC4" s="3" t="n">
-        <x:v>99.8</x:v>
+        <x:v>99.7</x:v>
       </x:c>
       <x:c r="ND4" s="3" t="n">
         <x:v>104.5</x:v>
@@ -3967,54 +3985,63 @@
         <x:v>109.7</x:v>
       </x:c>
       <x:c r="NI4" s="3" t="n">
-        <x:v>111</x:v>
+        <x:v>111.1</x:v>
       </x:c>
       <x:c r="NJ4" s="3" t="n">
-        <x:v>112.4</x:v>
+        <x:v>112.5</x:v>
       </x:c>
       <x:c r="NK4" s="3" t="n">
-        <x:v>109.6</x:v>
+        <x:v>109.7</x:v>
       </x:c>
       <x:c r="NL4" s="3" t="n">
         <x:v>109.1</x:v>
       </x:c>
       <x:c r="NM4" s="3" t="n">
-        <x:v>107.2</x:v>
+        <x:v>107.8</x:v>
       </x:c>
       <x:c r="NN4" s="3" t="n">
-        <x:v>116.7</x:v>
+        <x:v>116.1</x:v>
       </x:c>
       <x:c r="NO4" s="3" t="n">
-        <x:v>110.2</x:v>
+        <x:v>110.1</x:v>
       </x:c>
       <x:c r="NP4" s="3" t="n">
         <x:v>113.2</x:v>
       </x:c>
       <x:c r="NQ4" s="3" t="n">
-        <x:v>111.1</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="NR4" s="3" t="n">
-        <x:v>109.3</x:v>
+        <x:v>109.4</x:v>
       </x:c>
       <x:c r="NS4" s="3" t="n">
-        <x:v>111.8</x:v>
+        <x:v>111.9</x:v>
       </x:c>
       <x:c r="NT4" s="3" t="n">
-        <x:v>113.4</x:v>
+        <x:v>113.3</x:v>
       </x:c>
       <x:c r="NU4" s="3" t="n">
         <x:v>113.1</x:v>
       </x:c>
       <x:c r="NV4" s="3" t="n">
-        <x:v>114.3</x:v>
+        <x:v>114.4</x:v>
       </x:c>
       <x:c r="NW4" s="3" t="n">
-        <x:v>117</x:v>
+        <x:v>117.1</x:v>
+      </x:c>
+      <x:c r="NX4" s="3" t="n">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="NY4" s="3" t="n">
+        <x:v>113.8</x:v>
+      </x:c>
+      <x:c r="NZ4" s="3" t="n">
+        <x:v>116.3</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:387">
+    <x:row r="5" spans="1:390">
       <x:c r="B5" s="2" t="s">
-        <x:v>388</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="C5" s="3" t="n">
         <x:v>82.9</x:v>
@@ -5061,7 +5088,7 @@
         <x:v>98.3</x:v>
       </x:c>
       <x:c r="MM5" s="3" t="n">
-        <x:v>105.6</x:v>
+        <x:v>105.7</x:v>
       </x:c>
       <x:c r="MN5" s="3" t="n">
         <x:v>104</x:v>
@@ -5070,10 +5097,10 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="MP5" s="3" t="n">
-        <x:v>104.4</x:v>
+        <x:v>104.3</x:v>
       </x:c>
       <x:c r="MQ5" s="3" t="n">
-        <x:v>119.1</x:v>
+        <x:v>119.2</x:v>
       </x:c>
       <x:c r="MR5" s="3" t="n">
         <x:v>114</x:v>
@@ -5100,10 +5127,10 @@
         <x:v>107.5</x:v>
       </x:c>
       <x:c r="MZ5" s="3" t="n">
-        <x:v>108.5</x:v>
+        <x:v>108.4</x:v>
       </x:c>
       <x:c r="NA5" s="3" t="n">
-        <x:v>109</x:v>
+        <x:v>109.1</x:v>
       </x:c>
       <x:c r="NB5" s="3" t="n">
         <x:v>101.7</x:v>
@@ -5130,10 +5157,10 @@
         <x:v>115.4</x:v>
       </x:c>
       <x:c r="NJ5" s="3" t="n">
-        <x:v>101.9</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="NK5" s="3" t="n">
-        <x:v>106.8</x:v>
+        <x:v>106.9</x:v>
       </x:c>
       <x:c r="NL5" s="3" t="n">
         <x:v>104.3</x:v>
@@ -5151,13 +5178,13 @@
         <x:v>119.6</x:v>
       </x:c>
       <x:c r="NQ5" s="3" t="n">
-        <x:v>92.2</x:v>
+        <x:v>92.1</x:v>
       </x:c>
       <x:c r="NR5" s="3" t="n">
-        <x:v>113.2</x:v>
+        <x:v>113.3</x:v>
       </x:c>
       <x:c r="NS5" s="3" t="n">
-        <x:v>120</x:v>
+        <x:v>120.1</x:v>
       </x:c>
       <x:c r="NT5" s="3" t="n">
         <x:v>122.6</x:v>
@@ -5166,15 +5193,24 @@
         <x:v>117.4</x:v>
       </x:c>
       <x:c r="NV5" s="3" t="n">
-        <x:v>103.5</x:v>
+        <x:v>103.6</x:v>
       </x:c>
       <x:c r="NW5" s="3" t="n">
-        <x:v>114.1</x:v>
+        <x:v>114.2</x:v>
+      </x:c>
+      <x:c r="NX5" s="3" t="n">
+        <x:v>108.1</x:v>
+      </x:c>
+      <x:c r="NY5" s="3" t="n">
+        <x:v>114.3</x:v>
+      </x:c>
+      <x:c r="NZ5" s="3" t="n">
+        <x:v>112</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:387">
+    <x:row r="6" spans="1:390">
       <x:c r="B6" s="2" t="s">
-        <x:v>389</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="C6" s="3" t="n">
         <x:v>84.6</x:v>
@@ -6331,13 +6367,22 @@
       <x:c r="NW6" s="3" t="n">
         <x:v>113.7</x:v>
       </x:c>
+      <x:c r="NX6" s="3" t="n">
+        <x:v>108.1</x:v>
+      </x:c>
+      <x:c r="NY6" s="3" t="n">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="NZ6" s="3" t="n">
+        <x:v>106.8</x:v>
+      </x:c>
     </x:row>
-    <x:row r="7" spans="1:387">
+    <x:row r="7" spans="1:390">
       <x:c r="A7" s="2" t="s">
+        <x:v>393</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
         <x:v>390</x:v>
-      </x:c>
-      <x:c r="B7" s="2" t="s">
-        <x:v>387</x:v>
       </x:c>
       <x:c r="C7" s="3" t="n">
         <x:v>79.6</x:v>
@@ -7384,120 +7429,129 @@
         <x:v>167.4</x:v>
       </x:c>
       <x:c r="MM7" s="3" t="n">
-        <x:v>169.9</x:v>
+        <x:v>170.1</x:v>
       </x:c>
       <x:c r="MN7" s="3" t="n">
-        <x:v>171.7</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="MO7" s="3" t="n">
-        <x:v>171.7</x:v>
+        <x:v>172.7</x:v>
       </x:c>
       <x:c r="MP7" s="3" t="n">
-        <x:v>175.8</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="MQ7" s="3" t="n">
-        <x:v>178.5</x:v>
+        <x:v>178.1</x:v>
       </x:c>
       <x:c r="MR7" s="3" t="n">
-        <x:v>176.6</x:v>
+        <x:v>176.4</x:v>
       </x:c>
       <x:c r="MS7" s="3" t="n">
-        <x:v>177.5</x:v>
+        <x:v>177.3</x:v>
       </x:c>
       <x:c r="MT7" s="3" t="n">
-        <x:v>176.3</x:v>
+        <x:v>176.1</x:v>
       </x:c>
       <x:c r="MU7" s="3" t="n">
-        <x:v>178.5</x:v>
+        <x:v>178.4</x:v>
       </x:c>
       <x:c r="MV7" s="3" t="n">
-        <x:v>178.3</x:v>
+        <x:v>178.4</x:v>
       </x:c>
       <x:c r="MW7" s="3" t="n">
-        <x:v>181.3</x:v>
+        <x:v>181.4</x:v>
       </x:c>
       <x:c r="MX7" s="3" t="n">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="MY7" s="3" t="n">
         <x:v>180.8</x:v>
       </x:c>
-      <x:c r="MY7" s="3" t="n">
-        <x:v>180.5</x:v>
-      </x:c>
       <x:c r="MZ7" s="3" t="n">
-        <x:v>180.2</x:v>
+        <x:v>180.7</x:v>
       </x:c>
       <x:c r="NA7" s="3" t="n">
-        <x:v>163.6</x:v>
+        <x:v>164.9</x:v>
       </x:c>
       <x:c r="NB7" s="3" t="n">
-        <x:v>157.9</x:v>
+        <x:v>156.8</x:v>
       </x:c>
       <x:c r="NC7" s="3" t="n">
-        <x:v>158.2</x:v>
+        <x:v>157.7</x:v>
       </x:c>
       <x:c r="ND7" s="3" t="n">
-        <x:v>155.4</x:v>
+        <x:v>155.1</x:v>
       </x:c>
       <x:c r="NE7" s="3" t="n">
-        <x:v>149.4</x:v>
+        <x:v>149.2</x:v>
       </x:c>
       <x:c r="NF7" s="3" t="n">
-        <x:v>166.4</x:v>
+        <x:v>166.2</x:v>
       </x:c>
       <x:c r="NG7" s="3" t="n">
-        <x:v>162.9</x:v>
+        <x:v>162.8</x:v>
       </x:c>
       <x:c r="NH7" s="3" t="n">
-        <x:v>167.7</x:v>
+        <x:v>167.6</x:v>
       </x:c>
       <x:c r="NI7" s="3" t="n">
-        <x:v>168</x:v>
+        <x:v>168.1</x:v>
       </x:c>
       <x:c r="NJ7" s="3" t="n">
-        <x:v>161.1</x:v>
+        <x:v>161.4</x:v>
       </x:c>
       <x:c r="NK7" s="3" t="n">
-        <x:v>171.8</x:v>
+        <x:v>172.3</x:v>
       </x:c>
       <x:c r="NL7" s="3" t="n">
-        <x:v>172</x:v>
+        <x:v>172.6</x:v>
       </x:c>
       <x:c r="NM7" s="3" t="n">
-        <x:v>170.7</x:v>
+        <x:v>172.2</x:v>
       </x:c>
       <x:c r="NN7" s="3" t="n">
-        <x:v>163.9</x:v>
+        <x:v>162.2</x:v>
       </x:c>
       <x:c r="NO7" s="3" t="n">
-        <x:v>167.5</x:v>
+        <x:v>166.9</x:v>
       </x:c>
       <x:c r="NP7" s="3" t="n">
-        <x:v>166.2</x:v>
+        <x:v>165.8</x:v>
       </x:c>
       <x:c r="NQ7" s="3" t="n">
-        <x:v>164.3</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="NR7" s="3" t="n">
-        <x:v>160.9</x:v>
+        <x:v>160.7</x:v>
       </x:c>
       <x:c r="NS7" s="3" t="n">
-        <x:v>163.3</x:v>
+        <x:v>163.2</x:v>
       </x:c>
       <x:c r="NT7" s="3" t="n">
         <x:v>168.9</x:v>
       </x:c>
       <x:c r="NU7" s="3" t="n">
-        <x:v>165.4</x:v>
+        <x:v>165.6</x:v>
       </x:c>
       <x:c r="NV7" s="3" t="n">
-        <x:v>163.1</x:v>
+        <x:v>163.5</x:v>
       </x:c>
       <x:c r="NW7" s="3" t="n">
-        <x:v>170.7</x:v>
+        <x:v>171.3</x:v>
+      </x:c>
+      <x:c r="NX7" s="3" t="n">
+        <x:v>168.2</x:v>
+      </x:c>
+      <x:c r="NY7" s="3" t="n">
+        <x:v>168.3</x:v>
+      </x:c>
+      <x:c r="NZ7" s="3" t="n">
+        <x:v>172.6</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:387">
+    <x:row r="8" spans="1:390">
       <x:c r="B8" s="2" t="s">
-        <x:v>388</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="C8" s="3" t="n">
         <x:v>84.8</x:v>
@@ -8571,10 +8625,10 @@
         <x:v>192.1</x:v>
       </x:c>
       <x:c r="MV8" s="3" t="n">
-        <x:v>194.6</x:v>
+        <x:v>194.7</x:v>
       </x:c>
       <x:c r="MW8" s="3" t="n">
-        <x:v>197.5</x:v>
+        <x:v>197.4</x:v>
       </x:c>
       <x:c r="MX8" s="3" t="n">
         <x:v>167.1</x:v>
@@ -8595,7 +8649,7 @@
         <x:v>169.3</x:v>
       </x:c>
       <x:c r="ND8" s="3" t="n">
-        <x:v>162.9</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="NE8" s="3" t="n">
         <x:v>94.7</x:v>
@@ -8613,7 +8667,7 @@
         <x:v>183.3</x:v>
       </x:c>
       <x:c r="NJ8" s="3" t="n">
-        <x:v>149</x:v>
+        <x:v>149.1</x:v>
       </x:c>
       <x:c r="NK8" s="3" t="n">
         <x:v>182.2</x:v>
@@ -8625,7 +8679,7 @@
         <x:v>180.5</x:v>
       </x:c>
       <x:c r="NN8" s="3" t="n">
-        <x:v>157.2</x:v>
+        <x:v>157.3</x:v>
       </x:c>
       <x:c r="NO8" s="3" t="n">
         <x:v>179.4</x:v>
@@ -8634,13 +8688,13 @@
         <x:v>174.2</x:v>
       </x:c>
       <x:c r="NQ8" s="3" t="n">
-        <x:v>104.2</x:v>
+        <x:v>104.1</x:v>
       </x:c>
       <x:c r="NR8" s="3" t="n">
         <x:v>157.5</x:v>
       </x:c>
       <x:c r="NS8" s="3" t="n">
-        <x:v>175.6</x:v>
+        <x:v>175.7</x:v>
       </x:c>
       <x:c r="NT8" s="3" t="n">
         <x:v>183.9</x:v>
@@ -8654,10 +8708,19 @@
       <x:c r="NW8" s="3" t="n">
         <x:v>181.1</x:v>
       </x:c>
+      <x:c r="NX8" s="3" t="n">
+        <x:v>168.9</x:v>
+      </x:c>
+      <x:c r="NY8" s="3" t="n">
+        <x:v>176.2</x:v>
+      </x:c>
+      <x:c r="NZ8" s="3" t="n">
+        <x:v>167.7</x:v>
+      </x:c>
     </x:row>
-    <x:row r="9" spans="1:387">
+    <x:row r="9" spans="1:390">
       <x:c r="B9" s="2" t="s">
-        <x:v>389</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="C9" s="3" t="n">
         <x:v>84.8</x:v>
@@ -9814,13 +9877,22 @@
       <x:c r="NW9" s="3" t="n">
         <x:v>173.4</x:v>
       </x:c>
+      <x:c r="NX9" s="3" t="n">
+        <x:v>167.9</x:v>
+      </x:c>
+      <x:c r="NY9" s="3" t="n">
+        <x:v>192.1</x:v>
+      </x:c>
+      <x:c r="NZ9" s="3" t="n">
+        <x:v>156.3</x:v>
+      </x:c>
     </x:row>
-    <x:row r="10" spans="1:387">
+    <x:row r="10" spans="1:390">
       <x:c r="A10" s="2" t="s">
-        <x:v>391</x:v>
+        <x:v>394</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>387</x:v>
+        <x:v>390</x:v>
       </x:c>
       <x:c r="C10" s="3" t="n">
         <x:v>98.9</x:v>
@@ -10867,28 +10939,28 @@
         <x:v>44.4</x:v>
       </x:c>
       <x:c r="MM10" s="3" t="n">
-        <x:v>46.1</x:v>
+        <x:v>46.2</x:v>
       </x:c>
       <x:c r="MN10" s="3" t="n">
         <x:v>44.7</x:v>
       </x:c>
       <x:c r="MO10" s="3" t="n">
-        <x:v>43.7</x:v>
+        <x:v>42.7</x:v>
       </x:c>
       <x:c r="MP10" s="3" t="n">
-        <x:v>45.1</x:v>
+        <x:v>45.7</x:v>
       </x:c>
       <x:c r="MQ10" s="3" t="n">
-        <x:v>44.7</x:v>
+        <x:v>44.8</x:v>
       </x:c>
       <x:c r="MR10" s="3" t="n">
-        <x:v>44.5</x:v>
+        <x:v>44.6</x:v>
       </x:c>
       <x:c r="MS10" s="3" t="n">
         <x:v>37.4</x:v>
       </x:c>
       <x:c r="MT10" s="3" t="n">
-        <x:v>39.8</x:v>
+        <x:v>39.9</x:v>
       </x:c>
       <x:c r="MU10" s="3" t="n">
         <x:v>43.1</x:v>
@@ -10897,61 +10969,61 @@
         <x:v>42.6</x:v>
       </x:c>
       <x:c r="MW10" s="3" t="n">
-        <x:v>39.3</x:v>
+        <x:v>39.4</x:v>
       </x:c>
       <x:c r="MX10" s="3" t="n">
-        <x:v>40.5</x:v>
+        <x:v>40.6</x:v>
       </x:c>
       <x:c r="MY10" s="3" t="n">
-        <x:v>39.8</x:v>
+        <x:v>39.9</x:v>
       </x:c>
       <x:c r="MZ10" s="3" t="n">
-        <x:v>39.3</x:v>
+        <x:v>39.4</x:v>
       </x:c>
       <x:c r="NA10" s="3" t="n">
-        <x:v>37.9</x:v>
+        <x:v>36.8</x:v>
       </x:c>
       <x:c r="NB10" s="3" t="n">
-        <x:v>27.3</x:v>
+        <x:v>27.8</x:v>
       </x:c>
       <x:c r="NC10" s="3" t="n">
-        <x:v>31.3</x:v>
+        <x:v>31.4</x:v>
       </x:c>
       <x:c r="ND10" s="3" t="n">
-        <x:v>40.5</x:v>
+        <x:v>40.6</x:v>
       </x:c>
       <x:c r="NE10" s="3" t="n">
-        <x:v>43.3</x:v>
+        <x:v>43.4</x:v>
       </x:c>
       <x:c r="NF10" s="3" t="n">
-        <x:v>45.4</x:v>
+        <x:v>45.5</x:v>
       </x:c>
       <x:c r="NG10" s="3" t="n">
-        <x:v>47.4</x:v>
+        <x:v>47.3</x:v>
       </x:c>
       <x:c r="NH10" s="3" t="n">
-        <x:v>44.6</x:v>
+        <x:v>44.7</x:v>
       </x:c>
       <x:c r="NI10" s="3" t="n">
-        <x:v>45.7</x:v>
+        <x:v>45.8</x:v>
       </x:c>
       <x:c r="NJ10" s="3" t="n">
-        <x:v>47.1</x:v>
+        <x:v>47.2</x:v>
       </x:c>
       <x:c r="NK10" s="3" t="n">
-        <x:v>45.8</x:v>
+        <x:v>45.9</x:v>
       </x:c>
       <x:c r="NL10" s="3" t="n">
         <x:v>46.6</x:v>
       </x:c>
       <x:c r="NM10" s="3" t="n">
-        <x:v>47.9</x:v>
+        <x:v>46.2</x:v>
       </x:c>
       <x:c r="NN10" s="3" t="n">
-        <x:v>44.9</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="NO10" s="3" t="n">
-        <x:v>45.9</x:v>
+        <x:v>46.1</x:v>
       </x:c>
       <x:c r="NP10" s="3" t="n">
         <x:v>51.8</x:v>
@@ -10960,27 +11032,36 @@
         <x:v>47.3</x:v>
       </x:c>
       <x:c r="NR10" s="3" t="n">
-        <x:v>46.1</x:v>
+        <x:v>46.2</x:v>
       </x:c>
       <x:c r="NS10" s="3" t="n">
-        <x:v>48.2</x:v>
+        <x:v>48.1</x:v>
       </x:c>
       <x:c r="NT10" s="3" t="n">
         <x:v>45.9</x:v>
       </x:c>
       <x:c r="NU10" s="3" t="n">
-        <x:v>48.6</x:v>
+        <x:v>48.7</x:v>
       </x:c>
       <x:c r="NV10" s="3" t="n">
-        <x:v>44.8</x:v>
+        <x:v>44.9</x:v>
       </x:c>
       <x:c r="NW10" s="3" t="n">
-        <x:v>43.6</x:v>
+        <x:v>43.7</x:v>
+      </x:c>
+      <x:c r="NX10" s="3" t="n">
+        <x:v>43.3</x:v>
+      </x:c>
+      <x:c r="NY10" s="3" t="n">
+        <x:v>42.3</x:v>
+      </x:c>
+      <x:c r="NZ10" s="3" t="n">
+        <x:v>40</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:387">
+    <x:row r="11" spans="1:390">
       <x:c r="B11" s="2" t="s">
-        <x:v>388</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="C11" s="3" t="n">
         <x:v>102.7</x:v>
@@ -12036,7 +12117,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="MP11" s="3" t="n">
-        <x:v>42.8</x:v>
+        <x:v>42.9</x:v>
       </x:c>
       <x:c r="MQ11" s="3" t="n">
         <x:v>45.5</x:v>
@@ -12137,10 +12218,19 @@
       <x:c r="NW11" s="3" t="n">
         <x:v>49.7</x:v>
       </x:c>
+      <x:c r="NX11" s="3" t="n">
+        <x:v>45.5</x:v>
+      </x:c>
+      <x:c r="NY11" s="3" t="n">
+        <x:v>45.2</x:v>
+      </x:c>
+      <x:c r="NZ11" s="3" t="n">
+        <x:v>37.2</x:v>
+      </x:c>
     </x:row>
-    <x:row r="12" spans="1:387">
+    <x:row r="12" spans="1:390">
       <x:c r="B12" s="2" t="s">
-        <x:v>389</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="C12" s="3" t="n">
         <x:v>103.9</x:v>
@@ -13297,13 +13387,22 @@
       <x:c r="NW12" s="3" t="n">
         <x:v>46.6</x:v>
       </x:c>
+      <x:c r="NX12" s="3" t="n">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="NY12" s="3" t="n">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="NZ12" s="3" t="n">
+        <x:v>35.1</x:v>
+      </x:c>
     </x:row>
-    <x:row r="13" spans="1:387">
+    <x:row r="13" spans="1:390">
       <x:c r="A13" s="2" t="s">
-        <x:v>392</x:v>
+        <x:v>395</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>387</x:v>
+        <x:v>390</x:v>
       </x:c>
       <x:c r="C13" s="3" t="n">
         <x:v>99.5</x:v>
@@ -14356,10 +14455,10 @@
         <x:v>104.7</x:v>
       </x:c>
       <x:c r="MO13" s="3" t="n">
-        <x:v>103.1</x:v>
+        <x:v>103.3</x:v>
       </x:c>
       <x:c r="MP13" s="3" t="n">
-        <x:v>106.3</x:v>
+        <x:v>106.2</x:v>
       </x:c>
       <x:c r="MQ13" s="3" t="n">
         <x:v>105.7</x:v>
@@ -14377,10 +14476,10 @@
         <x:v>104.8</x:v>
       </x:c>
       <x:c r="MV13" s="3" t="n">
-        <x:v>108</x:v>
+        <x:v>107.9</x:v>
       </x:c>
       <x:c r="MW13" s="3" t="n">
-        <x:v>105.9</x:v>
+        <x:v>105.8</x:v>
       </x:c>
       <x:c r="MX13" s="3" t="n">
         <x:v>104</x:v>
@@ -14392,22 +14491,22 @@
         <x:v>105.1</x:v>
       </x:c>
       <x:c r="NA13" s="3" t="n">
-        <x:v>107.5</x:v>
+        <x:v>107.9</x:v>
       </x:c>
       <x:c r="NB13" s="3" t="n">
-        <x:v>106.4</x:v>
+        <x:v>106.1</x:v>
       </x:c>
       <x:c r="NC13" s="3" t="n">
-        <x:v>101.3</x:v>
+        <x:v>101.2</x:v>
       </x:c>
       <x:c r="ND13" s="3" t="n">
         <x:v>97.7</x:v>
       </x:c>
       <x:c r="NE13" s="3" t="n">
-        <x:v>108.3</x:v>
+        <x:v>108.2</x:v>
       </x:c>
       <x:c r="NF13" s="3" t="n">
-        <x:v>102.7</x:v>
+        <x:v>102.6</x:v>
       </x:c>
       <x:c r="NG13" s="3" t="n">
         <x:v>104.6</x:v>
@@ -14428,13 +14527,13 @@
         <x:v>109.8</x:v>
       </x:c>
       <x:c r="NM13" s="3" t="n">
-        <x:v>111.4</x:v>
+        <x:v>111.8</x:v>
       </x:c>
       <x:c r="NN13" s="3" t="n">
-        <x:v>110.9</x:v>
+        <x:v>110.6</x:v>
       </x:c>
       <x:c r="NO13" s="3" t="n">
-        <x:v>110.2</x:v>
+        <x:v>110.1</x:v>
       </x:c>
       <x:c r="NP13" s="3" t="n">
         <x:v>109.3</x:v>
@@ -14460,10 +14559,19 @@
       <x:c r="NW13" s="3" t="n">
         <x:v>105</x:v>
       </x:c>
+      <x:c r="NX13" s="3" t="n">
+        <x:v>105.3</x:v>
+      </x:c>
+      <x:c r="NY13" s="3" t="n">
+        <x:v>107.8</x:v>
+      </x:c>
+      <x:c r="NZ13" s="3" t="n">
+        <x:v>108.3</x:v>
+      </x:c>
     </x:row>
-    <x:row r="14" spans="1:387">
+    <x:row r="14" spans="1:390">
       <x:c r="B14" s="2" t="s">
-        <x:v>388</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="C14" s="3" t="n">
         <x:v>94.3</x:v>
@@ -15618,12 +15726,21 @@
         <x:v>101.4</x:v>
       </x:c>
       <x:c r="NW14" s="3" t="n">
-        <x:v>104.9</x:v>
+        <x:v>104.8</x:v>
+      </x:c>
+      <x:c r="NX14" s="3" t="n">
+        <x:v>100.8</x:v>
+      </x:c>
+      <x:c r="NY14" s="3" t="n">
+        <x:v>109.7</x:v>
+      </x:c>
+      <x:c r="NZ14" s="3" t="n">
+        <x:v>103.7</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:387">
+    <x:row r="15" spans="1:390">
       <x:c r="B15" s="2" t="s">
-        <x:v>389</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="C15" s="3" t="n">
         <x:v>95.9</x:v>
@@ -16780,13 +16897,22 @@
       <x:c r="NW15" s="3" t="n">
         <x:v>101.1</x:v>
       </x:c>
+      <x:c r="NX15" s="3" t="n">
+        <x:v>99.9</x:v>
+      </x:c>
+      <x:c r="NY15" s="3" t="n">
+        <x:v>116.4</x:v>
+      </x:c>
+      <x:c r="NZ15" s="3" t="n">
+        <x:v>99</x:v>
+      </x:c>
     </x:row>
-    <x:row r="16" spans="1:387">
+    <x:row r="16" spans="1:390">
       <x:c r="A16" s="2" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>387</x:v>
+        <x:v>390</x:v>
       </x:c>
       <x:c r="C16" s="3" t="n">
         <x:v>99.4</x:v>
@@ -17839,10 +17965,10 @@
         <x:v>96.3</x:v>
       </x:c>
       <x:c r="MO16" s="3" t="n">
-        <x:v>93.9</x:v>
+        <x:v>94.2</x:v>
       </x:c>
       <x:c r="MP16" s="3" t="n">
-        <x:v>97.9</x:v>
+        <x:v>97.8</x:v>
       </x:c>
       <x:c r="MQ16" s="3" t="n">
         <x:v>97</x:v>
@@ -17851,7 +17977,7 @@
         <x:v>95.7</x:v>
       </x:c>
       <x:c r="MS16" s="3" t="n">
-        <x:v>97.2</x:v>
+        <x:v>97.1</x:v>
       </x:c>
       <x:c r="MT16" s="3" t="n">
         <x:v>96.7</x:v>
@@ -17875,10 +18001,10 @@
         <x:v>95.8</x:v>
       </x:c>
       <x:c r="NA16" s="3" t="n">
-        <x:v>96.4</x:v>
+        <x:v>96.8</x:v>
       </x:c>
       <x:c r="NB16" s="3" t="n">
-        <x:v>95.2</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="NC16" s="3" t="n">
         <x:v>91.3</x:v>
@@ -17896,7 +18022,7 @@
         <x:v>96.5</x:v>
       </x:c>
       <x:c r="NH16" s="3" t="n">
-        <x:v>96.6</x:v>
+        <x:v>96.5</x:v>
       </x:c>
       <x:c r="NI16" s="3" t="n">
         <x:v>94.1</x:v>
@@ -17911,16 +18037,16 @@
         <x:v>100.7</x:v>
       </x:c>
       <x:c r="NM16" s="3" t="n">
-        <x:v>102</x:v>
+        <x:v>102.5</x:v>
       </x:c>
       <x:c r="NN16" s="3" t="n">
-        <x:v>101.4</x:v>
+        <x:v>101.1</x:v>
       </x:c>
       <x:c r="NO16" s="3" t="n">
         <x:v>101.2</x:v>
       </x:c>
       <x:c r="NP16" s="3" t="n">
-        <x:v>101.1</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="NQ16" s="3" t="n">
         <x:v>102.3</x:v>
@@ -17932,7 +18058,7 @@
         <x:v>103.7</x:v>
       </x:c>
       <x:c r="NT16" s="3" t="n">
-        <x:v>95.6</x:v>
+        <x:v>95.5</x:v>
       </x:c>
       <x:c r="NU16" s="3" t="n">
         <x:v>97.2</x:v>
@@ -17943,10 +18069,19 @@
       <x:c r="NW16" s="3" t="n">
         <x:v>96.3</x:v>
       </x:c>
+      <x:c r="NX16" s="3" t="n">
+        <x:v>96.4</x:v>
+      </x:c>
+      <x:c r="NY16" s="3" t="n">
+        <x:v>98.3</x:v>
+      </x:c>
+      <x:c r="NZ16" s="3" t="n">
+        <x:v>98.9</x:v>
+      </x:c>
     </x:row>
-    <x:row r="17" spans="1:387">
+    <x:row r="17" spans="1:390">
       <x:c r="B17" s="2" t="s">
-        <x:v>388</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="C17" s="3" t="n">
         <x:v>95.1</x:v>
@@ -19103,10 +19238,19 @@
       <x:c r="NW17" s="3" t="n">
         <x:v>97.1</x:v>
       </x:c>
+      <x:c r="NX17" s="3" t="n">
+        <x:v>93.2</x:v>
+      </x:c>
+      <x:c r="NY17" s="3" t="n">
+        <x:v>100.5</x:v>
+      </x:c>
+      <x:c r="NZ17" s="3" t="n">
+        <x:v>94.7</x:v>
+      </x:c>
     </x:row>
-    <x:row r="18" spans="1:387">
+    <x:row r="18" spans="1:390">
       <x:c r="B18" s="2" t="s">
-        <x:v>389</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="C18" s="3" t="n">
         <x:v>96.9</x:v>
@@ -20263,13 +20407,22 @@
       <x:c r="NW18" s="3" t="n">
         <x:v>93.6</x:v>
       </x:c>
+      <x:c r="NX18" s="3" t="n">
+        <x:v>92.3</x:v>
+      </x:c>
+      <x:c r="NY18" s="3" t="n">
+        <x:v>107.2</x:v>
+      </x:c>
+      <x:c r="NZ18" s="3" t="n">
+        <x:v>90</x:v>
+      </x:c>
     </x:row>
-    <x:row r="19" spans="1:387">
+    <x:row r="19" spans="1:390">
       <x:c r="A19" s="2" t="s">
-        <x:v>394</x:v>
+        <x:v>397</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
-        <x:v>387</x:v>
+        <x:v>390</x:v>
       </x:c>
       <x:c r="C19" s="3" t="n">
         <x:v>63</x:v>
@@ -21322,13 +21475,13 @@
         <x:v>65.6</x:v>
       </x:c>
       <x:c r="MO19" s="3" t="n">
-        <x:v>65.2</x:v>
+        <x:v>65.1</x:v>
       </x:c>
       <x:c r="MP19" s="3" t="n">
         <x:v>65.6</x:v>
       </x:c>
       <x:c r="MQ19" s="3" t="n">
-        <x:v>64.7</x:v>
+        <x:v>64.8</x:v>
       </x:c>
       <x:c r="MR19" s="3" t="n">
         <x:v>64</x:v>
@@ -21346,7 +21499,7 @@
         <x:v>65.4</x:v>
       </x:c>
       <x:c r="MW19" s="3" t="n">
-        <x:v>69.8</x:v>
+        <x:v>69.9</x:v>
       </x:c>
       <x:c r="MX19" s="3" t="n">
         <x:v>70.6</x:v>
@@ -21355,19 +21508,19 @@
         <x:v>68.9</x:v>
       </x:c>
       <x:c r="MZ19" s="3" t="n">
-        <x:v>71.4</x:v>
+        <x:v>71.5</x:v>
       </x:c>
       <x:c r="NA19" s="3" t="n">
-        <x:v>74.4</x:v>
+        <x:v>74.2</x:v>
       </x:c>
       <x:c r="NB19" s="3" t="n">
         <x:v>74.5</x:v>
       </x:c>
       <x:c r="NC19" s="3" t="n">
-        <x:v>78.1</x:v>
+        <x:v>78.2</x:v>
       </x:c>
       <x:c r="ND19" s="3" t="n">
-        <x:v>72.5</x:v>
+        <x:v>72.6</x:v>
       </x:c>
       <x:c r="NE19" s="3" t="n">
         <x:v>74.3</x:v>
@@ -21388,22 +21541,22 @@
         <x:v>72.6</x:v>
       </x:c>
       <x:c r="NK19" s="3" t="n">
-        <x:v>73.8</x:v>
+        <x:v>73.9</x:v>
       </x:c>
       <x:c r="NL19" s="3" t="n">
-        <x:v>72</x:v>
+        <x:v>71.9</x:v>
       </x:c>
       <x:c r="NM19" s="3" t="n">
-        <x:v>72</x:v>
+        <x:v>71.8</x:v>
       </x:c>
       <x:c r="NN19" s="3" t="n">
-        <x:v>72.8</x:v>
+        <x:v>72.9</x:v>
       </x:c>
       <x:c r="NO19" s="3" t="n">
-        <x:v>72</x:v>
+        <x:v>72.1</x:v>
       </x:c>
       <x:c r="NP19" s="3" t="n">
-        <x:v>73.4</x:v>
+        <x:v>73.5</x:v>
       </x:c>
       <x:c r="NQ19" s="3" t="n">
         <x:v>73.7</x:v>
@@ -21415,10 +21568,10 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="NT19" s="3" t="n">
-        <x:v>75.7</x:v>
+        <x:v>75.8</x:v>
       </x:c>
       <x:c r="NU19" s="3" t="n">
-        <x:v>71.6</x:v>
+        <x:v>71.7</x:v>
       </x:c>
       <x:c r="NV19" s="3" t="n">
         <x:v>73.9</x:v>
@@ -21426,10 +21579,19 @@
       <x:c r="NW19" s="3" t="n">
         <x:v>71</x:v>
       </x:c>
+      <x:c r="NX19" s="3" t="n">
+        <x:v>70.8</x:v>
+      </x:c>
+      <x:c r="NY19" s="3" t="n">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="NZ19" s="3" t="n">
+        <x:v>71.3</x:v>
+      </x:c>
     </x:row>
-    <x:row r="20" spans="1:387">
+    <x:row r="20" spans="1:390">
       <x:c r="B20" s="2" t="s">
-        <x:v>388</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="C20" s="3" t="n">
         <x:v>69.2</x:v>
@@ -22586,10 +22748,19 @@
       <x:c r="NW20" s="3" t="n">
         <x:v>79.2</x:v>
       </x:c>
+      <x:c r="NX20" s="3" t="n">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="NY20" s="3" t="n">
+        <x:v>77.4</x:v>
+      </x:c>
+      <x:c r="NZ20" s="3" t="n">
+        <x:v>71</x:v>
+      </x:c>
     </x:row>
-    <x:row r="21" spans="1:387">
+    <x:row r="21" spans="1:390">
       <x:c r="B21" s="2" t="s">
-        <x:v>389</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="C21" s="3" t="n">
         <x:v>69.4</x:v>
@@ -23746,281 +23917,290 @@
       <x:c r="NW21" s="3" t="n">
         <x:v>78.7</x:v>
       </x:c>
+      <x:c r="NX21" s="3" t="n">
+        <x:v>71.2</x:v>
+      </x:c>
+      <x:c r="NY21" s="3" t="n">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="NZ21" s="3" t="n">
+        <x:v>70.8</x:v>
+      </x:c>
     </x:row>
-    <x:row r="23" spans="1:387">
+    <x:row r="23" spans="1:390">
       <x:c r="A23" s="4" t="s">
-        <x:v>395</x:v>
+        <x:v>398</x:v>
       </x:c>
     </x:row>
-    <x:row r="24" spans="1:387">
+    <x:row r="24" spans="1:390">
       <x:c r="A24" s="4" t="s">
-        <x:v>396</x:v>
+        <x:v>399</x:v>
       </x:c>
     </x:row>
-    <x:row r="26" spans="1:387">
+    <x:row r="26" spans="1:390">
       <x:c r="A26" s="0" t="s">
-        <x:v>397</x:v>
+        <x:v>400</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:387">
+    <x:row r="27" spans="1:390">
       <x:c r="A27" s="0" t="s">
-        <x:v>398</x:v>
+        <x:v>401</x:v>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:387">
+    <x:row r="28" spans="1:390">
       <x:c r="A28" s="0" t="s">
-        <x:v>399</x:v>
+        <x:v>402</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:387">
+    <x:row r="29" spans="1:390">
       <x:c r="A29" s="0" t="s">
-        <x:v>400</x:v>
+        <x:v>403</x:v>
       </x:c>
     </x:row>
-    <x:row r="30" spans="1:387">
+    <x:row r="30" spans="1:390">
       <x:c r="A30" s="0" t="s">
-        <x:v>399</x:v>
+        <x:v>402</x:v>
       </x:c>
     </x:row>
-    <x:row r="31" spans="1:387">
+    <x:row r="31" spans="1:390">
       <x:c r="A31" s="0" t="s">
+        <x:v>404</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:390">
+      <x:c r="A32" s="0" t="s">
+        <x:v>402</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:390">
+      <x:c r="A34" s="0" t="s">
+        <x:v>405</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:390">
+      <x:c r="A35" s="0" t="s">
+        <x:v>406</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:390">
+      <x:c r="A37" s="0" t="s">
+        <x:v>407</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:390">
+      <x:c r="A38" s="0" t="s">
         <x:v>401</x:v>
       </x:c>
     </x:row>
-    <x:row r="32" spans="1:387">
-      <x:c r="A32" s="0" t="s">
-        <x:v>399</x:v>
+    <x:row r="39" spans="1:390">
+      <x:c r="A39" s="0" t="s">
+        <x:v>408</x:v>
       </x:c>
     </x:row>
-    <x:row r="34" spans="1:387">
-      <x:c r="A34" s="0" t="s">
-        <x:v>402</x:v>
+    <x:row r="40" spans="1:390">
+      <x:c r="A40" s="0" t="s">
+        <x:v>409</x:v>
       </x:c>
     </x:row>
-    <x:row r="35" spans="1:387">
-      <x:c r="A35" s="0" t="s">
+    <x:row r="41" spans="1:390">
+      <x:c r="A41" s="0" t="s">
+        <x:v>410</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:390">
+      <x:c r="A45" s="0" t="s">
+        <x:v>411</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:390">
+      <x:c r="A47" s="0" t="s">
+        <x:v>412</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:390">
+      <x:c r="A48" s="0" t="s">
+        <x:v>401</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:390">
+      <x:c r="A49" s="0" t="s">
+        <x:v>413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:390">
+      <x:c r="A50" s="0" t="s">
         <x:v>403</x:v>
       </x:c>
     </x:row>
-    <x:row r="37" spans="1:387">
-      <x:c r="A37" s="0" t="s">
+    <x:row r="51" spans="1:390">
+      <x:c r="A51" s="0" t="s">
+        <x:v>413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:390">
+      <x:c r="A52" s="0" t="s">
         <x:v>404</x:v>
       </x:c>
     </x:row>
-    <x:row r="38" spans="1:387">
-      <x:c r="A38" s="0" t="s">
-        <x:v>398</x:v>
+    <x:row r="53" spans="1:390">
+      <x:c r="A53" s="0" t="s">
+        <x:v>413</x:v>
       </x:c>
     </x:row>
-    <x:row r="39" spans="1:387">
-      <x:c r="A39" s="0" t="s">
-        <x:v>405</x:v>
+    <x:row r="54" spans="1:390">
+      <x:c r="A54" s="0" t="s">
+        <x:v>414</x:v>
       </x:c>
     </x:row>
-    <x:row r="40" spans="1:387">
-      <x:c r="A40" s="0" t="s">
-        <x:v>406</x:v>
+    <x:row r="55" spans="1:390">
+      <x:c r="A55" s="0" t="s">
+        <x:v>401</x:v>
       </x:c>
     </x:row>
-    <x:row r="41" spans="1:387">
-      <x:c r="A41" s="0" t="s">
-        <x:v>407</x:v>
+    <x:row r="56" spans="1:390">
+      <x:c r="A56" s="0" t="s">
+        <x:v>415</x:v>
       </x:c>
     </x:row>
-    <x:row r="45" spans="1:387">
-      <x:c r="A45" s="0" t="s">
-        <x:v>408</x:v>
+    <x:row r="57" spans="1:390">
+      <x:c r="A57" s="0" t="s">
+        <x:v>403</x:v>
       </x:c>
     </x:row>
-    <x:row r="47" spans="1:387">
-      <x:c r="A47" s="0" t="s">
-        <x:v>409</x:v>
+    <x:row r="58" spans="1:390">
+      <x:c r="A58" s="0" t="s">
+        <x:v>415</x:v>
       </x:c>
     </x:row>
-    <x:row r="48" spans="1:387">
-      <x:c r="A48" s="0" t="s">
-        <x:v>398</x:v>
+    <x:row r="59" spans="1:390">
+      <x:c r="A59" s="0" t="s">
+        <x:v>404</x:v>
       </x:c>
     </x:row>
-    <x:row r="49" spans="1:387">
-      <x:c r="A49" s="0" t="s">
-        <x:v>410</x:v>
+    <x:row r="60" spans="1:390">
+      <x:c r="A60" s="0" t="s">
+        <x:v>415</x:v>
       </x:c>
     </x:row>
-    <x:row r="50" spans="1:387">
-      <x:c r="A50" s="0" t="s">
-        <x:v>400</x:v>
+    <x:row r="62" spans="1:390">
+      <x:c r="A62" s="0" t="s">
+        <x:v>416</x:v>
       </x:c>
     </x:row>
-    <x:row r="51" spans="1:387">
-      <x:c r="A51" s="0" t="s">
-        <x:v>410</x:v>
+    <x:row r="63" spans="1:390">
+      <x:c r="A63" s="0" t="s">
+        <x:v>390</x:v>
       </x:c>
     </x:row>
-    <x:row r="52" spans="1:387">
-      <x:c r="A52" s="0" t="s">
+    <x:row r="64" spans="1:390">
+      <x:c r="A64" s="0" t="s">
+        <x:v>417</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:390">
+      <x:c r="A65" s="0" t="s">
+        <x:v>391</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:390">
+      <x:c r="A66" s="0" t="s">
+        <x:v>417</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:390">
+      <x:c r="A67" s="0" t="s">
+        <x:v>392</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="1:390">
+      <x:c r="A68" s="0" t="s">
+        <x:v>417</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="1:390">
+      <x:c r="A70" s="0" t="s">
         <x:v>401</x:v>
       </x:c>
     </x:row>
-    <x:row r="53" spans="1:387">
-      <x:c r="A53" s="0" t="s">
-        <x:v>410</x:v>
+    <x:row r="71" spans="1:390">
+      <x:c r="A71" s="0" t="s">
+        <x:v>418</x:v>
       </x:c>
     </x:row>
-    <x:row r="54" spans="1:387">
-      <x:c r="A54" s="0" t="s">
-        <x:v>411</x:v>
+    <x:row r="72" spans="1:390">
+      <x:c r="A72" s="0" t="s">
+        <x:v>403</x:v>
       </x:c>
     </x:row>
-    <x:row r="55" spans="1:387">
-      <x:c r="A55" s="0" t="s">
-        <x:v>398</x:v>
+    <x:row r="73" spans="1:390">
+      <x:c r="A73" s="0" t="s">
+        <x:v>418</x:v>
       </x:c>
     </x:row>
-    <x:row r="56" spans="1:387">
-      <x:c r="A56" s="0" t="s">
-        <x:v>412</x:v>
+    <x:row r="74" spans="1:390">
+      <x:c r="A74" s="0" t="s">
+        <x:v>404</x:v>
       </x:c>
     </x:row>
-    <x:row r="57" spans="1:387">
-      <x:c r="A57" s="0" t="s">
-        <x:v>400</x:v>
+    <x:row r="75" spans="1:390">
+      <x:c r="A75" s="0" t="s">
+        <x:v>418</x:v>
       </x:c>
     </x:row>
-    <x:row r="58" spans="1:387">
-      <x:c r="A58" s="0" t="s">
-        <x:v>412</x:v>
+    <x:row r="78" spans="1:390">
+      <x:c r="A78" s="0" t="s">
+        <x:v>401</x:v>
       </x:c>
     </x:row>
-    <x:row r="59" spans="1:387">
-      <x:c r="A59" s="0" t="s">
+    <x:row r="79" spans="1:390">
+      <x:c r="A79" s="0" t="s">
+        <x:v>419</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80" spans="1:390">
+      <x:c r="A80" s="0" t="s">
+        <x:v>403</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81" spans="1:390">
+      <x:c r="A81" s="0" t="s">
+        <x:v>419</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83" spans="1:390">
+      <x:c r="A83" s="0" t="s">
         <x:v>401</x:v>
       </x:c>
     </x:row>
-    <x:row r="60" spans="1:387">
-      <x:c r="A60" s="0" t="s">
-        <x:v>412</x:v>
+    <x:row r="84" spans="1:390">
+      <x:c r="A84" s="0" t="s">
+        <x:v>420</x:v>
       </x:c>
     </x:row>
-    <x:row r="62" spans="1:387">
-      <x:c r="A62" s="0" t="s">
-        <x:v>413</x:v>
+    <x:row r="87" spans="1:390">
+      <x:c r="A87" s="0" t="s">
+        <x:v>421</x:v>
       </x:c>
     </x:row>
-    <x:row r="63" spans="1:387">
-      <x:c r="A63" s="0" t="s">
-        <x:v>387</x:v>
+    <x:row r="88" spans="1:390">
+      <x:c r="A88" s="0" t="s">
+        <x:v>422</x:v>
       </x:c>
     </x:row>
-    <x:row r="64" spans="1:387">
-      <x:c r="A64" s="0" t="s">
-        <x:v>414</x:v>
+    <x:row r="90" spans="1:390">
+      <x:c r="A90" s="0" t="s">
+        <x:v>423</x:v>
       </x:c>
     </x:row>
-    <x:row r="65" spans="1:387">
-      <x:c r="A65" s="0" t="s">
-        <x:v>388</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="66" spans="1:387">
-      <x:c r="A66" s="0" t="s">
-        <x:v>414</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="67" spans="1:387">
-      <x:c r="A67" s="0" t="s">
-        <x:v>389</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="68" spans="1:387">
-      <x:c r="A68" s="0" t="s">
-        <x:v>414</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="70" spans="1:387">
-      <x:c r="A70" s="0" t="s">
-        <x:v>398</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="71" spans="1:387">
-      <x:c r="A71" s="0" t="s">
-        <x:v>415</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="72" spans="1:387">
-      <x:c r="A72" s="0" t="s">
-        <x:v>400</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="73" spans="1:387">
-      <x:c r="A73" s="0" t="s">
-        <x:v>415</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="74" spans="1:387">
-      <x:c r="A74" s="0" t="s">
-        <x:v>401</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="75" spans="1:387">
-      <x:c r="A75" s="0" t="s">
-        <x:v>415</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="78" spans="1:387">
-      <x:c r="A78" s="0" t="s">
-        <x:v>398</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="79" spans="1:387">
-      <x:c r="A79" s="0" t="s">
-        <x:v>416</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="80" spans="1:387">
-      <x:c r="A80" s="0" t="s">
-        <x:v>400</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="81" spans="1:387">
-      <x:c r="A81" s="0" t="s">
-        <x:v>416</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="83" spans="1:387">
-      <x:c r="A83" s="0" t="s">
-        <x:v>398</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="84" spans="1:387">
-      <x:c r="A84" s="0" t="s">
-        <x:v>417</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="87" spans="1:387">
-      <x:c r="A87" s="0" t="s">
-        <x:v>418</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="88" spans="1:387">
-      <x:c r="A88" s="0" t="s">
-        <x:v>419</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="90" spans="1:387">
-      <x:c r="A90" s="0" t="s">
-        <x:v>420</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="91" spans="1:387">
+    <x:row r="91" spans="1:390">
       <x:c r="A91" s="0" t="s">
-        <x:v>421</x:v>
+        <x:v>424</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="2">
-    <x:mergeCell ref="A23:NW23"/>
-    <x:mergeCell ref="A24:NW24"/>
+    <x:mergeCell ref="A23:NZ23"/>
+    <x:mergeCell ref="A24:NZ24"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
